--- a/data/categories_and_datasets.xlsx
+++ b/data/categories_and_datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="-6000" windowWidth="31320" windowHeight="22180" tabRatio="500"/>
+    <workbookView xWindow="30280" yWindow="-5360" windowWidth="36920" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="MarineCadastre themes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">datasets!$A$1:$M$256</definedName>
     <definedName name="ocean_use">categories!$D$2:$D$97</definedName>
     <definedName name="oceanuse">categories!$D$2:$D$97</definedName>
   </definedNames>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5162" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="1273">
   <si>
     <t>title</t>
   </si>
@@ -3974,7 +3975,16 @@
     <t>Physical and Oceanographic</t>
   </si>
   <si>
-    <t>shipping_lanes</t>
+    <t>shippinglanes</t>
+  </si>
+  <si>
+    <t>efh</t>
+  </si>
+  <si>
+    <t>mpa</t>
+  </si>
+  <si>
+    <t>oil</t>
   </si>
 </sst>
 </file>
@@ -4053,7 +4063,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4178,6 +4188,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4191,7 +4202,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4277,6 +4288,7 @@
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4647,14 +4659,14 @@
   <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="560" topLeftCell="A190" activePane="bottomLeft"/>
+      <pane ySplit="560" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B225" sqref="B225"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.6640625" style="1" customWidth="1"/>
@@ -4706,71 +4718,71 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>612</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>613</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>614</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>615</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>608</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>609</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>610</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>611</v>
       </c>
       <c r="M3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>588</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>589</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -4779,13 +4791,13 @@
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>590</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>591</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -4793,28 +4805,28 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>584</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>585</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>586</v>
       </c>
       <c r="K5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>587</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
@@ -4822,28 +4834,28 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>581</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>1121</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>582</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>13</v>
+        <v>583</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -4851,13 +4863,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>33</v>
+        <v>475</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
@@ -4866,13 +4878,13 @@
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>476</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>35</v>
+        <v>477</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -4880,57 +4892,57 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>446</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>447</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>448</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -4938,57 +4950,57 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>361</v>
       </c>
       <c r="K10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>47</v>
+        <v>362</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
@@ -4996,57 +5008,57 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="K12" s="1">
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="K13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
@@ -5054,28 +5066,28 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
@@ -5083,42 +5095,45 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1272</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="K15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="M15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>22</v>
@@ -5127,42 +5142,45 @@
         <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="M16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1043</v>
+        <v>1079</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>1088</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -5170,28 +5188,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>849</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1044</v>
+        <v>1079</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>77</v>
+        <v>850</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>826</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>79</v>
+        <v>851</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -5199,28 +5220,28 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -5228,28 +5249,28 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>789</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>85</v>
+        <v>790</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -5257,28 +5278,28 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>782</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>89</v>
+        <v>783</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>90</v>
+        <v>784</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>91</v>
+        <v>785</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -5286,28 +5307,28 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>776</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>93</v>
+        <v>777</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>778</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>779</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>780</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>95</v>
+        <v>781</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -5315,28 +5336,28 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>770</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>97</v>
+        <v>771</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>98</v>
+        <v>772</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -5344,57 +5365,54 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>767</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>65</v>
+        <v>768</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>769</v>
       </c>
       <c r="K24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>102</v>
+        <v>769</v>
       </c>
       <c r="M24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>765</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>104</v>
+        <v>1123</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>13</v>
+        <v>766</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -5402,13 +5420,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1050</v>
+        <v>757</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1042</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>106</v>
+        <v>758</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
@@ -5417,13 +5435,13 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>107</v>
+        <v>759</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>108</v>
+        <v>760</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -5431,86 +5449,86 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>732</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1154</v>
+        <v>733</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>110</v>
+        <v>734</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>111</v>
+        <v>735</v>
       </c>
       <c r="M27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>499</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>113</v>
+        <v>500</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>22</v>
+        <v>501</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>23</v>
+        <v>502</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>114</v>
+        <v>503</v>
       </c>
       <c r="K28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>115</v>
+        <v>504</v>
       </c>
       <c r="M28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>495</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>117</v>
+        <v>496</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>118</v>
+        <v>497</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>119</v>
+        <v>498</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -5518,13 +5536,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>478</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>121</v>
+        <v>479</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>16</v>
@@ -5533,13 +5551,13 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>123</v>
+        <v>481</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -5547,31 +5565,28 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1060</v>
+        <v>353</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>125</v>
+        <v>354</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>126</v>
+        <v>355</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>357</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -5579,31 +5594,28 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1060</v>
+        <v>303</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>128</v>
+        <v>305</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -5611,31 +5623,28 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1060</v>
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -5643,31 +5652,28 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1060</v>
+        <v>103</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -5675,31 +5681,28 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1060</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -5707,31 +5710,28 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1060</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -5739,31 +5739,28 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1053</v>
+        <v>1144</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>146</v>
+        <v>848</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>128</v>
+        <v>826</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>147</v>
+        <v>827</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -5771,31 +5768,28 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1060</v>
+        <v>824</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1053</v>
+        <v>1144</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>149</v>
+        <v>825</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>128</v>
+        <v>826</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>150</v>
+        <v>827</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -5803,31 +5797,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1060</v>
+        <v>488</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1271</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1053</v>
+        <v>1144</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>152</v>
+        <v>1117</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>126</v>
+        <v>484</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>127</v>
+        <v>485</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>128</v>
+        <v>486</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>153</v>
+        <v>487</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -5835,31 +5829,28 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1060</v>
+        <v>482</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1053</v>
+        <v>1144</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>155</v>
+        <v>483</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>126</v>
+        <v>484</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>127</v>
+        <v>485</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>128</v>
+        <v>486</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>156</v>
+        <v>487</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -5867,31 +5858,31 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1060</v>
+        <v>333</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1053</v>
+        <v>1078</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>158</v>
+        <v>1101</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -5899,31 +5890,28 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1060</v>
+        <v>786</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1053</v>
+        <v>1078</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>161</v>
+        <v>1124</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>128</v>
+        <v>787</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>162</v>
+        <v>788</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -5931,28 +5919,28 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>604</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>164</v>
+        <v>605</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>606</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>166</v>
+        <v>607</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -5960,31 +5948,28 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1061</v>
+        <v>492</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1053</v>
+        <v>1078</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>168</v>
+        <v>1118</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>128</v>
+        <v>493</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>169</v>
+        <v>494</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -5992,31 +5977,28 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1062</v>
+        <v>469</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1053</v>
+        <v>1078</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>171</v>
+        <v>1114</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -6024,13 +6006,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>16</v>
@@ -6039,13 +6021,13 @@
         <v>17</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>174</v>
+        <v>462</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>175</v>
+        <v>463</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -6053,13 +6035,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>457</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1053</v>
+        <v>1078</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>16</v>
@@ -6068,13 +6050,13 @@
         <v>17</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>178</v>
+        <v>459</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>179</v>
+        <v>460</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
@@ -6082,28 +6064,28 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="K48" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>183</v>
+        <v>345</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -6111,28 +6093,28 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>184</v>
+        <v>336</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>185</v>
+        <v>337</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
@@ -6140,31 +6122,28 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1069</v>
+        <v>299</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
@@ -6172,31 +6151,28 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1070</v>
+        <v>295</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -6204,31 +6180,28 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1070</v>
+        <v>261</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>198</v>
+        <v>1098</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="M52" s="1">
         <v>1</v>
@@ -6236,28 +6209,28 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1142</v>
+        <v>1081</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>1091</v>
+        <v>284</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="M53" s="1">
         <v>1</v>
@@ -6265,28 +6238,28 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1141</v>
+        <v>1037</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1092</v>
+        <v>278</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="M54" s="1">
         <v>1</v>
@@ -6294,28 +6267,28 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1142</v>
+        <v>1075</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1093</v>
+        <v>164</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="M55" s="1">
         <v>1</v>
@@ -6323,28 +6296,28 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>206</v>
+        <v>650</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1141</v>
+        <v>1052</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>1094</v>
+        <v>651</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>202</v>
+        <v>652</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>203</v>
+        <v>653</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
@@ -6352,28 +6325,28 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1141</v>
+        <v>1052</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1095</v>
+        <v>121</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="K57" s="1">
         <v>1</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="M57" s="1">
         <v>1</v>
@@ -6381,28 +6354,28 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>208</v>
+        <v>513</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>1096</v>
+        <v>514</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>202</v>
+        <v>515</v>
       </c>
       <c r="K58" s="1">
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>203</v>
+        <v>516</v>
       </c>
       <c r="M58" s="1">
         <v>1</v>
@@ -6410,13 +6383,13 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>489</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1072</v>
+        <v>1145</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>210</v>
+        <v>490</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>16</v>
@@ -6424,14 +6397,11 @@
       <c r="I59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>212</v>
+        <v>491</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
@@ -6439,19 +6409,13 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1073</v>
+        <v>643</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
+        <v>1085</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>214</v>
+        <v>644</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>16</v>
@@ -6460,13 +6424,13 @@
         <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>215</v>
+        <v>645</v>
       </c>
       <c r="K60" s="1">
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>216</v>
+        <v>646</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
@@ -6474,144 +6438,141 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>217</v>
+        <v>639</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>218</v>
+        <v>640</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>221</v>
+        <v>641</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>222</v>
+        <v>642</v>
       </c>
       <c r="M61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>224</v>
+        <v>1155</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="M62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>852</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>226</v>
+        <v>1125</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>221</v>
+        <v>853</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>222</v>
+        <v>854</v>
       </c>
       <c r="M63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>804</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>228</v>
+        <v>805</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>219</v>
+        <v>801</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>220</v>
+        <v>802</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>221</v>
+        <v>806</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>222</v>
+        <v>807</v>
       </c>
       <c r="M64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>229</v>
+        <v>799</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1076</v>
+        <v>1050</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>231</v>
+        <v>801</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>233</v>
+        <v>802</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>234</v>
+        <v>803</v>
       </c>
       <c r="M65" s="1">
         <v>1</v>
@@ -6619,28 +6580,28 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>235</v>
+        <v>407</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1076</v>
+        <v>1050</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>236</v>
+        <v>1105</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>232</v>
+        <v>409</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="M66" s="1">
         <v>1</v>
@@ -6648,28 +6609,28 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>1097</v>
+        <v>1154</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="K67" s="1">
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="M67" s="1">
         <v>1</v>
@@ -6677,28 +6638,28 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="K68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="M68" s="1">
         <v>1</v>
@@ -6706,13 +6667,16 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1070</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>22</v>
@@ -6721,13 +6685,13 @@
         <v>23</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="K69" s="1">
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="M69" s="1">
         <v>1</v>
@@ -6735,13 +6699,16 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>249</v>
+        <v>194</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1070</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>22</v>
@@ -6750,42 +6717,42 @@
         <v>23</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="K70" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="M70" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>253</v>
+        <v>419</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1051</v>
+        <v>1066</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>254</v>
+        <v>1107</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>22</v>
+        <v>415</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>23</v>
+        <v>416</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="M71" s="1">
         <v>1</v>
@@ -6793,31 +6760,28 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>1077</v>
+        <v>414</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>258</v>
+        <v>1106</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>186</v>
+        <v>415</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>187</v>
+        <v>416</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>259</v>
+        <v>417</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>260</v>
+        <v>418</v>
       </c>
       <c r="M72" s="1">
         <v>1</v>
@@ -6825,28 +6789,28 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>1098</v>
+        <v>185</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="K73" s="1">
         <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="M73" s="1">
         <v>1</v>
@@ -6854,28 +6818,28 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>264</v>
+        <v>421</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>265</v>
+        <v>1108</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>267</v>
+        <v>423</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>268</v>
+        <v>424</v>
       </c>
       <c r="K74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="M74" s="1">
         <v>1</v>
@@ -6883,28 +6847,31 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>270</v>
+        <v>351</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1270</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1053</v>
+        <v>1089</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="K75" s="1">
         <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="M75" s="1">
         <v>1</v>
@@ -6912,28 +6879,28 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>273</v>
+        <v>730</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>274</v>
+        <v>1097</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="K76" s="1">
         <v>1</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
       <c r="M76" s="1">
         <v>1</v>
@@ -6941,28 +6908,28 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>277</v>
+        <v>536</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1037</v>
+        <v>1074</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>278</v>
+        <v>534</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>279</v>
+        <v>427</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>281</v>
+        <v>535</v>
       </c>
       <c r="K77" s="1">
         <v>1</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>282</v>
+        <v>430</v>
       </c>
       <c r="M77" s="1">
         <v>1</v>
@@ -6970,28 +6937,28 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>283</v>
+        <v>533</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>284</v>
+        <v>534</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>287</v>
+        <v>535</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="M78" s="1">
         <v>1</v>
@@ -6999,28 +6966,28 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>289</v>
+        <v>529</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>290</v>
+        <v>530</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>293</v>
+        <v>531</v>
       </c>
       <c r="K79" s="1">
         <v>1</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>294</v>
+        <v>532</v>
       </c>
       <c r="M79" s="1">
         <v>1</v>
@@ -7028,28 +6995,28 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>295</v>
+        <v>468</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>296</v>
+        <v>1113</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>297</v>
+        <v>465</v>
       </c>
       <c r="K80" s="1">
         <v>1</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
       <c r="M80" s="1">
         <v>1</v>
@@ -7057,28 +7024,28 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>300</v>
+        <v>1112</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>301</v>
+        <v>465</v>
       </c>
       <c r="K81" s="1">
         <v>1</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>302</v>
+        <v>466</v>
       </c>
       <c r="M81" s="1">
         <v>1</v>
@@ -7086,28 +7053,28 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>303</v>
+        <v>464</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>304</v>
+        <v>1111</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>305</v>
+        <v>465</v>
       </c>
       <c r="K82" s="1">
         <v>1</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>306</v>
+        <v>466</v>
       </c>
       <c r="M82" s="1">
         <v>1</v>
@@ -7115,28 +7082,28 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>307</v>
+        <v>425</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>308</v>
+        <v>426</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>16</v>
+        <v>427</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>17</v>
+        <v>428</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="K83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="M83" s="1">
         <v>1</v>
@@ -7144,28 +7111,28 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1053</v>
+        <v>1074</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="K84" s="1">
         <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="M84" s="1">
         <v>1</v>
@@ -7173,28 +7140,28 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1155</v>
+        <v>1097</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="K85" s="1">
         <v>1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="M85" s="1">
         <v>1</v>
@@ -7202,25 +7169,28 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>318</v>
+        <v>1097</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>320</v>
+        <v>220</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="M86" s="1">
         <v>1</v>
@@ -7228,28 +7198,28 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c r="K87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="M87" s="1">
         <v>2</v>
@@ -7257,48 +7227,42 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>1087</v>
+        <v>225</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>896</v>
+        <v>1074</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="K88" s="1">
         <v>1</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="M88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
+        <v>1074</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>1088</v>
+        <v>224</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>219</v>
@@ -7307,132 +7271,111 @@
         <v>220</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="M89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1101</v>
+        <v>218</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="K90" s="1">
         <v>1</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="M90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>337</v>
+        <v>1109</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>16</v>
+        <v>432</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="K91" s="1">
-        <v>1</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="M91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>340</v>
+        <v>455</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>341</v>
+        <v>1109</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>342</v>
+        <v>432</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="K92" s="1">
-        <v>1</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="M92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1139</v>
+        <v>454</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1053</v>
+        <v>1143</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>347</v>
+        <v>1109</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" s="1">
         <v>0</v>
@@ -7440,527 +7383,419 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1089</v>
+        <v>1143</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>219</v>
+        <v>432</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="M94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>354</v>
+        <v>1109</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>357</v>
+        <v>433</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="M95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1051</v>
+        <v>1143</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>360</v>
+        <v>1109</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="K96" s="1">
-        <v>3</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="M96" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1051</v>
+        <v>1143</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>364</v>
+        <v>1109</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="M97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>219</v>
+        <v>432</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>239</v>
+        <v>433</v>
       </c>
       <c r="K98" s="1">
-        <v>1</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="M98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="M99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="K100" s="1">
-        <v>1</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="M100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1061</v>
+        <v>442</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1053</v>
+        <v>1143</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>374</v>
+        <v>1109</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>126</v>
+        <v>432</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>128</v>
+        <v>433</v>
       </c>
       <c r="K101" s="1">
-        <v>1</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="M101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>1061</v>
+        <v>441</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1053</v>
+        <v>1143</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>377</v>
+        <v>1109</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>126</v>
+        <v>432</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>128</v>
+        <v>433</v>
       </c>
       <c r="K102" s="1">
-        <v>1</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="M102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>380</v>
+        <v>1109</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K103" s="1">
-        <v>2</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>384</v>
+        <v>1109</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K104" s="1">
-        <v>2</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>386</v>
+        <v>1109</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K105" s="1">
-        <v>2</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>388</v>
+        <v>1109</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K106" s="1">
-        <v>2</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>390</v>
+        <v>1109</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K107" s="1">
-        <v>2</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>392</v>
+        <v>1109</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K108" s="1">
-        <v>2</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>394</v>
+        <v>1109</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K109" s="1">
-        <v>2</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1072</v>
+        <v>1143</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>396</v>
+        <v>1109</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K110" s="1">
-        <v>2</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>398</v>
+        <v>1115</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>381</v>
+        <v>465</v>
       </c>
       <c r="K111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
       <c r="M111" s="1">
         <v>1</v>
@@ -7968,28 +7803,28 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>400</v>
+        <v>1103</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="K112" s="1">
         <v>1</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="M112" s="1">
         <v>1</v>
@@ -7997,28 +7832,28 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1053</v>
+        <v>1141</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>404</v>
+        <v>1095</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>405</v>
+        <v>202</v>
       </c>
       <c r="K113" s="1">
         <v>1</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="M113" s="1">
         <v>1</v>
@@ -8026,28 +7861,28 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>407</v>
+        <v>206</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1050</v>
+        <v>1141</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>408</v>
+        <v>200</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>409</v>
+        <v>201</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>410</v>
+        <v>202</v>
       </c>
       <c r="K114" s="1">
         <v>1</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>411</v>
+        <v>203</v>
       </c>
       <c r="M114" s="1">
         <v>1</v>
@@ -8055,28 +7890,28 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>412</v>
+        <v>204</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1074</v>
+        <v>1141</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K115" s="1">
         <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>413</v>
+        <v>203</v>
       </c>
       <c r="M115" s="1">
         <v>1</v>
@@ -8084,28 +7919,28 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1066</v>
+        <v>1142</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>415</v>
+        <v>200</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>416</v>
+        <v>201</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="K116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="M116" s="1">
         <v>1</v>
@@ -8113,28 +7948,28 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1066</v>
+        <v>1142</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>415</v>
+        <v>200</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>416</v>
+        <v>201</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K117" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>203</v>
+        <v>371</v>
       </c>
       <c r="M117" s="1">
         <v>1</v>
@@ -8142,28 +7977,28 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1089</v>
+        <v>1142</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>422</v>
+        <v>200</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>423</v>
+        <v>201</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>424</v>
+        <v>202</v>
       </c>
       <c r="K118" s="1">
         <v>1</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="M118" s="1">
         <v>1</v>
@@ -8171,28 +8006,28 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>425</v>
+        <v>205</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1074</v>
+        <v>1142</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>426</v>
+        <v>1093</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>427</v>
+        <v>200</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>428</v>
+        <v>201</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>429</v>
+        <v>202</v>
       </c>
       <c r="K119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>430</v>
+        <v>203</v>
       </c>
       <c r="M119" s="1">
         <v>1</v>
@@ -8200,517 +8035,688 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>431</v>
+        <v>199</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>433</v>
+        <v>201</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="M120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>434</v>
+        <v>213</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1073</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1109</v>
+        <v>214</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>432</v>
+        <v>16</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>433</v>
+        <v>17</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="K121" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="M121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>435</v>
+        <v>828</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>1109</v>
+        <v>829</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>432</v>
+        <v>219</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>433</v>
+        <v>220</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="K122" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="M122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>436</v>
+        <v>820</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>1109</v>
+        <v>821</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>432</v>
+        <v>22</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>433</v>
+        <v>23</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="K123" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="M123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>437</v>
+        <v>714</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>1109</v>
+        <v>715</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>432</v>
+        <v>291</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>433</v>
+        <v>292</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="K124" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="M124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>438</v>
+        <v>678</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>1109</v>
+        <v>679</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="M125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>439</v>
+        <v>675</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>1109</v>
+        <v>676</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K126" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="M126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
-        <v>440</v>
+        <v>672</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>1109</v>
+        <v>673</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K127" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="M127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>441</v>
+        <v>669</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>1109</v>
+        <v>670</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="M128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
-        <v>442</v>
+        <v>666</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1109</v>
+        <v>667</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="M129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>443</v>
+        <v>663</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>1109</v>
+        <v>664</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K130" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="M130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
-        <v>444</v>
+        <v>660</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1109</v>
+        <v>661</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="M131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>445</v>
+        <v>657</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>446</v>
+        <v>658</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>447</v>
+        <v>128</v>
       </c>
       <c r="K132" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>448</v>
+        <v>659</v>
       </c>
       <c r="M132" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
-        <v>449</v>
+        <v>654</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>1109</v>
+        <v>655</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="M133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>450</v>
+        <v>647</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>432</v>
+        <v>16</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>433</v>
+        <v>17</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="M134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>451</v>
+        <v>632</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>1109</v>
+        <v>633</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="M135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
-        <v>452</v>
+        <v>629</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>1109</v>
+        <v>630</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K136" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="M136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>453</v>
+        <v>626</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>1109</v>
+        <v>627</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="M137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>454</v>
+        <v>526</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>1109</v>
+        <v>527</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K138" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="M138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>455</v>
+        <v>523</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>1109</v>
+        <v>524</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>433</v>
+        <v>127</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="M139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>1109</v>
+        <v>404</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>432</v>
+        <v>219</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>433</v>
+        <v>220</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="M140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>457</v>
+        <v>376</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>458</v>
+        <v>377</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="K141" s="1">
         <v>1</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>460</v>
+        <v>378</v>
       </c>
       <c r="M141" s="1">
         <v>1</v>
@@ -8718,28 +8724,31 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
-        <v>461</v>
+        <v>373</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>1110</v>
+        <v>374</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
       <c r="K142" s="1">
         <v>1</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
       <c r="M142" s="1">
         <v>1</v>
@@ -8747,57 +8756,57 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>464</v>
+        <v>346</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1139</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>1111</v>
+        <v>347</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>201</v>
+        <v>349</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="K143" s="1">
         <v>1</v>
       </c>
-      <c r="L143" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="M143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>465</v>
+        <v>312</v>
       </c>
       <c r="K144" s="1">
         <v>1</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>466</v>
+        <v>313</v>
       </c>
       <c r="M144" s="1">
         <v>1</v>
@@ -8805,28 +8814,28 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>465</v>
+        <v>271</v>
       </c>
       <c r="K145" s="1">
         <v>1</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="M145" s="1">
         <v>1</v>
@@ -8834,13 +8843,13 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>469</v>
+        <v>176</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>1114</v>
+        <v>177</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>16</v>
@@ -8849,13 +8858,13 @@
         <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>470</v>
+        <v>178</v>
       </c>
       <c r="K146" s="1">
         <v>1</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>471</v>
+        <v>179</v>
       </c>
       <c r="M146" s="1">
         <v>1</v>
@@ -8863,28 +8872,31 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>472</v>
+        <v>170</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1062</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1141</v>
+        <v>1053</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>1115</v>
+        <v>171</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>465</v>
+        <v>128</v>
       </c>
       <c r="K147" s="1">
         <v>1</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>466</v>
+        <v>172</v>
       </c>
       <c r="M147" s="1">
         <v>1</v>
@@ -8892,28 +8904,31 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>473</v>
+        <v>167</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1061</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1142</v>
+        <v>1053</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>1116</v>
+        <v>168</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>465</v>
+        <v>128</v>
       </c>
       <c r="K148" s="1">
         <v>1</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>466</v>
+        <v>169</v>
       </c>
       <c r="M148" s="1">
         <v>1</v>
@@ -8921,28 +8936,31 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>474</v>
+        <v>160</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>475</v>
+        <v>161</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>476</v>
+        <v>128</v>
       </c>
       <c r="K149" s="1">
         <v>1</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>477</v>
+        <v>162</v>
       </c>
       <c r="M149" s="1">
         <v>1</v>
@@ -8950,28 +8968,31 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>478</v>
+        <v>157</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>479</v>
+        <v>158</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>480</v>
+        <v>128</v>
       </c>
       <c r="K150" s="1">
         <v>1</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>481</v>
+        <v>159</v>
       </c>
       <c r="M150" s="1">
         <v>1</v>
@@ -8979,28 +9000,31 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>482</v>
+        <v>154</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1144</v>
+        <v>1053</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>484</v>
+        <v>126</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>485</v>
+        <v>127</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>486</v>
+        <v>128</v>
       </c>
       <c r="K151" s="1">
         <v>1</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>487</v>
+        <v>156</v>
       </c>
       <c r="M151" s="1">
         <v>1</v>
@@ -9008,28 +9032,31 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>488</v>
+        <v>151</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1144</v>
+        <v>1053</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>1117</v>
+        <v>152</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>484</v>
+        <v>126</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>485</v>
+        <v>127</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>486</v>
+        <v>128</v>
       </c>
       <c r="K152" s="1">
         <v>1</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>487</v>
+        <v>153</v>
       </c>
       <c r="M152" s="1">
         <v>1</v>
@@ -9037,25 +9064,31 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
-        <v>489</v>
+        <v>148</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1145</v>
+        <v>1053</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>490</v>
+        <v>149</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>491</v>
+        <v>150</v>
       </c>
       <c r="M153" s="1">
         <v>1</v>
@@ -9063,28 +9096,31 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
-        <v>492</v>
+        <v>145</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>1118</v>
+        <v>146</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>493</v>
+        <v>128</v>
       </c>
       <c r="K154" s="1">
         <v>1</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>494</v>
+        <v>147</v>
       </c>
       <c r="M154" s="1">
         <v>1</v>
@@ -9092,28 +9128,31 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>495</v>
+        <v>142</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>496</v>
+        <v>143</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>497</v>
+        <v>128</v>
       </c>
       <c r="K155" s="1">
         <v>1</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>498</v>
+        <v>144</v>
       </c>
       <c r="M155" s="1">
         <v>1</v>
@@ -9121,28 +9160,31 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
-        <v>499</v>
+        <v>139</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>502</v>
+        <v>127</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>503</v>
+        <v>128</v>
       </c>
       <c r="K156" s="1">
         <v>1</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>504</v>
+        <v>141</v>
       </c>
       <c r="M156" s="1">
         <v>1</v>
@@ -9150,86 +9192,95 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
-        <v>505</v>
+        <v>136</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1146</v>
+        <v>1053</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>506</v>
+        <v>137</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>507</v>
+        <v>128</v>
       </c>
       <c r="K157" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>508</v>
+        <v>138</v>
       </c>
       <c r="M157" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
-        <v>509</v>
+        <v>133</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>510</v>
+        <v>134</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>511</v>
+        <v>128</v>
       </c>
       <c r="K158" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>512</v>
+        <v>135</v>
       </c>
       <c r="M158" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>513</v>
+        <v>130</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1145</v>
+        <v>1053</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>514</v>
+        <v>131</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="K159" s="1">
         <v>1</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>516</v>
+        <v>132</v>
       </c>
       <c r="M159" s="1">
         <v>1</v>
@@ -9237,28 +9288,31 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>517</v>
+        <v>124</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>518</v>
+        <v>125</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>519</v>
+        <v>126</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>520</v>
+        <v>127</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>521</v>
+        <v>128</v>
       </c>
       <c r="K160" s="1">
         <v>1</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>522</v>
+        <v>129</v>
       </c>
       <c r="M160" s="1">
         <v>1</v>
@@ -9266,31 +9320,28 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>1061</v>
+        <v>543</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1053</v>
+        <v>1152</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>126</v>
+        <v>539</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>128</v>
+        <v>545</v>
       </c>
       <c r="K161" s="1">
         <v>1</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="M161" s="1">
         <v>1</v>
@@ -9298,31 +9349,28 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>1061</v>
+        <v>537</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1053</v>
+        <v>1152</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>126</v>
+        <v>539</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>128</v>
+        <v>541</v>
       </c>
       <c r="K162" s="1">
         <v>1</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="M162" s="1">
         <v>1</v>
@@ -9330,28 +9378,28 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1074</v>
+        <v>1168</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="K163" s="1">
         <v>1</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="M163" s="1">
         <v>1</v>
@@ -9359,28 +9407,28 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>533</v>
+        <v>744</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1074</v>
+        <v>1172</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>534</v>
+        <v>745</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>428</v>
+        <v>540</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>535</v>
+        <v>746</v>
       </c>
       <c r="K164" s="1">
         <v>1</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>430</v>
+        <v>743</v>
       </c>
       <c r="M164" s="1">
         <v>1</v>
@@ -9388,28 +9436,28 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>536</v>
+        <v>740</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1074</v>
+        <v>1172</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>534</v>
+        <v>741</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>428</v>
+        <v>540</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>535</v>
+        <v>742</v>
       </c>
       <c r="K165" s="1">
         <v>1</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>430</v>
+        <v>743</v>
       </c>
       <c r="M165" s="1">
         <v>1</v>
@@ -9417,28 +9465,28 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1152</v>
+        <v>1172</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>538</v>
+        <v>636</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>539</v>
+        <v>16</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>540</v>
+        <v>17</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>541</v>
+        <v>637</v>
       </c>
       <c r="K166" s="1">
         <v>1</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>542</v>
+        <v>638</v>
       </c>
       <c r="M166" s="1">
         <v>1</v>
@@ -9446,28 +9494,28 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="K167" s="1">
         <v>1</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="M167" s="1">
         <v>1</v>
@@ -9475,115 +9523,115 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1153</v>
+        <v>1169</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>16</v>
+        <v>573</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="K168" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="M168" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>550</v>
+        <v>711</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>1156</v>
+        <v>688</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>16</v>
+        <v>683</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>17</v>
+        <v>684</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>551</v>
+        <v>712</v>
       </c>
       <c r="K169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>552</v>
+        <v>713</v>
       </c>
       <c r="M169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>553</v>
+        <v>708</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>896</v>
+        <v>1072</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>554</v>
+        <v>688</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>484</v>
+        <v>683</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>555</v>
+        <v>709</v>
       </c>
       <c r="K170" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>556</v>
+        <v>710</v>
       </c>
       <c r="M170" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>557</v>
+        <v>705</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>896</v>
+        <v>1072</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>1119</v>
+        <v>688</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>484</v>
+        <v>683</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>558</v>
+        <v>706</v>
       </c>
       <c r="K171" s="1">
         <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>559</v>
+        <v>707</v>
       </c>
       <c r="M171" s="1">
         <v>1</v>
@@ -9591,28 +9639,28 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>560</v>
+        <v>702</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>896</v>
+        <v>1072</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>561</v>
+        <v>688</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>484</v>
+        <v>683</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>562</v>
+        <v>703</v>
       </c>
       <c r="K172" s="1">
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>563</v>
+        <v>704</v>
       </c>
       <c r="M172" s="1">
         <v>1</v>
@@ -9620,28 +9668,28 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>564</v>
+        <v>1157</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>896</v>
+        <v>1072</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>565</v>
+        <v>688</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>484</v>
+        <v>683</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="K173" s="1">
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>567</v>
+        <v>701</v>
       </c>
       <c r="M173" s="1">
         <v>1</v>
@@ -9649,28 +9697,28 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>568</v>
+        <v>697</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>896</v>
+        <v>1072</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>1120</v>
+        <v>688</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>484</v>
+        <v>683</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>569</v>
+        <v>698</v>
       </c>
       <c r="K174" s="1">
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>570</v>
+        <v>699</v>
       </c>
       <c r="M174" s="1">
         <v>1</v>
@@ -9678,28 +9726,28 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
-        <v>571</v>
+        <v>694</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1167</v>
+        <v>1072</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>572</v>
+        <v>688</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>573</v>
+        <v>683</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>574</v>
+        <v>684</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>575</v>
+        <v>695</v>
       </c>
       <c r="K175" s="1">
         <v>1</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>576</v>
+        <v>696</v>
       </c>
       <c r="M175" s="1">
         <v>1</v>
@@ -9707,28 +9755,28 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
-        <v>577</v>
+        <v>691</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1168</v>
+        <v>1072</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>578</v>
+        <v>688</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>22</v>
+        <v>683</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>23</v>
+        <v>684</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>579</v>
+        <v>692</v>
       </c>
       <c r="K176" s="1">
         <v>1</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>580</v>
+        <v>693</v>
       </c>
       <c r="M176" s="1">
         <v>1</v>
@@ -9736,28 +9784,28 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
-        <v>581</v>
+        <v>687</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>1121</v>
+        <v>688</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>22</v>
+        <v>683</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>23</v>
+        <v>684</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>582</v>
+        <v>689</v>
       </c>
       <c r="K177" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>583</v>
+        <v>690</v>
       </c>
       <c r="M177" s="1">
         <v>1</v>
@@ -9765,28 +9813,28 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>584</v>
+        <v>681</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>22</v>
+        <v>683</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>23</v>
+        <v>684</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>586</v>
+        <v>685</v>
       </c>
       <c r="K178" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>587</v>
+        <v>686</v>
       </c>
       <c r="M178" s="1">
         <v>1</v>
@@ -9794,28 +9842,31 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>588</v>
+        <v>596</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1170</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K179" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="M179" s="1">
         <v>1</v>
@@ -9823,60 +9874,57 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1169</v>
+        <v>1072</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>593</v>
+        <v>518</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>573</v>
+        <v>519</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>574</v>
+        <v>520</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>594</v>
+        <v>521</v>
       </c>
       <c r="K180" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>595</v>
+        <v>522</v>
       </c>
       <c r="M180" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>1170</v>
+        <v>399</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>597</v>
+        <v>400</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>598</v>
+        <v>401</v>
       </c>
       <c r="K181" s="1">
         <v>1</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>599</v>
+        <v>402</v>
       </c>
       <c r="M181" s="1">
         <v>1</v>
@@ -9884,13 +9932,13 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>600</v>
+        <v>397</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>601</v>
+        <v>398</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>22</v>
@@ -9899,27 +9947,27 @@
         <v>23</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>602</v>
+        <v>381</v>
       </c>
       <c r="K182" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>603</v>
+        <v>382</v>
       </c>
       <c r="M182" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>604</v>
+        <v>395</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>605</v>
+        <v>396</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>22</v>
@@ -9928,13 +9976,13 @@
         <v>23</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>606</v>
+        <v>381</v>
       </c>
       <c r="K183" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>607</v>
+        <v>382</v>
       </c>
       <c r="M183" s="1">
         <v>1</v>
@@ -9942,13 +9990,13 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
-        <v>608</v>
+        <v>393</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>609</v>
+        <v>394</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>22</v>
@@ -9957,27 +10005,27 @@
         <v>23</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>610</v>
+        <v>381</v>
       </c>
       <c r="K184" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>611</v>
+        <v>382</v>
       </c>
       <c r="M184" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>612</v>
+        <v>391</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>613</v>
+        <v>392</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>22</v>
@@ -9986,30 +10034,27 @@
         <v>23</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>614</v>
+        <v>381</v>
       </c>
       <c r="K185" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>615</v>
+        <v>382</v>
       </c>
       <c r="M185" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>1171</v>
+        <v>389</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1146</v>
+        <v>1072</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>617</v>
+        <v>390</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>22</v>
@@ -10018,13 +10063,13 @@
         <v>23</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>618</v>
+        <v>381</v>
       </c>
       <c r="K186" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>619</v>
+        <v>382</v>
       </c>
       <c r="M186" s="1">
         <v>1</v>
@@ -10032,13 +10077,13 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>620</v>
+        <v>387</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1146</v>
+        <v>1072</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>621</v>
+        <v>388</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>22</v>
@@ -10047,13 +10092,13 @@
         <v>23</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>622</v>
+        <v>381</v>
       </c>
       <c r="K187" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>623</v>
+        <v>382</v>
       </c>
       <c r="M187" s="1">
         <v>1</v>
@@ -10061,13 +10106,13 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>624</v>
+        <v>385</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1146</v>
+        <v>1072</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>625</v>
+        <v>386</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>22</v>
@@ -10076,13 +10121,13 @@
         <v>23</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>618</v>
+        <v>381</v>
       </c>
       <c r="K188" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>619</v>
+        <v>382</v>
       </c>
       <c r="M188" s="1">
         <v>1</v>
@@ -10090,31 +10135,28 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>1061</v>
+        <v>383</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>627</v>
+        <v>384</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>128</v>
+        <v>381</v>
       </c>
       <c r="K189" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>628</v>
+        <v>382</v>
       </c>
       <c r="M189" s="1">
         <v>1</v>
@@ -10122,31 +10164,28 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>1061</v>
+        <v>379</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>630</v>
+        <v>380</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>128</v>
+        <v>381</v>
       </c>
       <c r="K190" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>631</v>
+        <v>382</v>
       </c>
       <c r="M190" s="1">
         <v>1</v>
@@ -10154,31 +10193,31 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>1061</v>
+        <v>257</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>633</v>
+        <v>258</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="K191" s="1">
         <v>1</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>634</v>
+        <v>260</v>
       </c>
       <c r="M191" s="1">
         <v>1</v>
@@ -10186,13 +10225,13 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="1" t="s">
-        <v>635</v>
+        <v>209</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1172</v>
+        <v>1072</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>636</v>
+        <v>210</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>16</v>
@@ -10201,13 +10240,13 @@
         <v>17</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>637</v>
+        <v>211</v>
       </c>
       <c r="K192" s="1">
         <v>1</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>638</v>
+        <v>212</v>
       </c>
       <c r="M192" s="1">
         <v>1</v>
@@ -10215,13 +10254,13 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="1" t="s">
-        <v>639</v>
+        <v>754</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1085</v>
+        <v>1146</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>640</v>
+        <v>755</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>16</v>
@@ -10230,13 +10269,13 @@
         <v>17</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>641</v>
+        <v>749</v>
       </c>
       <c r="K193" s="1">
         <v>1</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>642</v>
+        <v>756</v>
       </c>
       <c r="M193" s="1">
         <v>1</v>
@@ -10244,13 +10283,13 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>643</v>
+        <v>751</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1085</v>
+        <v>1146</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>644</v>
+        <v>752</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>16</v>
@@ -10259,13 +10298,13 @@
         <v>17</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="K194" s="1">
         <v>1</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>646</v>
+        <v>753</v>
       </c>
       <c r="M194" s="1">
         <v>1</v>
@@ -10273,13 +10312,13 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
-        <v>647</v>
+        <v>747</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1053</v>
+        <v>1146</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>1122</v>
+        <v>748</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>16</v>
@@ -10288,13 +10327,13 @@
         <v>17</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="K195" s="1">
         <v>1</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>649</v>
+        <v>750</v>
       </c>
       <c r="M195" s="1">
         <v>1</v>
@@ -10302,28 +10341,28 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
-        <v>650</v>
+        <v>718</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1052</v>
+        <v>1146</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>651</v>
+        <v>719</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>652</v>
+        <v>720</v>
       </c>
       <c r="K196" s="1">
         <v>1</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>653</v>
+        <v>721</v>
       </c>
       <c r="M196" s="1">
         <v>1</v>
@@ -10331,31 +10370,28 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>1061</v>
+        <v>624</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1053</v>
+        <v>1146</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>128</v>
+        <v>618</v>
       </c>
       <c r="K197" s="1">
         <v>1</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="M197" s="1">
         <v>1</v>
@@ -10363,31 +10399,28 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>1061</v>
+        <v>620</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1053</v>
+        <v>1146</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>128</v>
+        <v>622</v>
       </c>
       <c r="K198" s="1">
         <v>1</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="M198" s="1">
         <v>1</v>
@@ -10395,31 +10428,31 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>1061</v>
+        <v>616</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>1171</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1053</v>
+        <v>1146</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>128</v>
+        <v>618</v>
       </c>
       <c r="K199" s="1">
         <v>1</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>662</v>
+        <v>619</v>
       </c>
       <c r="M199" s="1">
         <v>1</v>
@@ -10427,63 +10460,57 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>1061</v>
+        <v>505</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1053</v>
+        <v>1146</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>664</v>
+        <v>506</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>128</v>
+        <v>507</v>
       </c>
       <c r="K200" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>665</v>
+        <v>508</v>
       </c>
       <c r="M200" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>1061</v>
+        <v>791</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1053</v>
+        <v>1067</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>667</v>
+        <v>792</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>128</v>
+        <v>793</v>
       </c>
       <c r="K201" s="1">
         <v>1</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>668</v>
+        <v>794</v>
       </c>
       <c r="M201" s="1">
         <v>1</v>
@@ -10491,31 +10518,28 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>1061</v>
+        <v>550</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1053</v>
+        <v>1067</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>670</v>
+        <v>1156</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>128</v>
+        <v>551</v>
       </c>
       <c r="K202" s="1">
         <v>1</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>671</v>
+        <v>552</v>
       </c>
       <c r="M202" s="1">
         <v>1</v>
@@ -10523,63 +10547,60 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>1061</v>
+        <v>509</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1053</v>
+        <v>1067</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>673</v>
+        <v>510</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>128</v>
+        <v>511</v>
       </c>
       <c r="K203" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>674</v>
+        <v>512</v>
       </c>
       <c r="M203" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>1061</v>
+        <v>190</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>1069</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1053</v>
+        <v>1067</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>676</v>
+        <v>191</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="K204" s="1">
         <v>1</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>677</v>
+        <v>193</v>
       </c>
       <c r="M204" s="1">
         <v>1</v>
@@ -10587,31 +10608,28 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>1061</v>
+        <v>773</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1053</v>
+        <v>896</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>128</v>
+        <v>775</v>
       </c>
       <c r="K205" s="1">
         <v>1</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="M205" s="1">
         <v>1</v>
@@ -10619,28 +10637,28 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="1" t="s">
-        <v>681</v>
+        <v>568</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1072</v>
+        <v>896</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>682</v>
+        <v>1120</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>683</v>
+        <v>484</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>684</v>
+        <v>485</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>685</v>
+        <v>569</v>
       </c>
       <c r="K206" s="1">
         <v>1</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>686</v>
+        <v>570</v>
       </c>
       <c r="M206" s="1">
         <v>1</v>
@@ -10648,28 +10666,28 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
-        <v>687</v>
+        <v>564</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1072</v>
+        <v>896</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>688</v>
+        <v>565</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>683</v>
+        <v>484</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>684</v>
+        <v>485</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>689</v>
+        <v>566</v>
       </c>
       <c r="K207" s="1">
         <v>1</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>690</v>
+        <v>567</v>
       </c>
       <c r="M207" s="1">
         <v>1</v>
@@ -10677,28 +10695,28 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
-        <v>691</v>
+        <v>560</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1072</v>
+        <v>896</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>688</v>
+        <v>561</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>683</v>
+        <v>484</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>684</v>
+        <v>485</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>692</v>
+        <v>562</v>
       </c>
       <c r="K208" s="1">
         <v>1</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>693</v>
+        <v>563</v>
       </c>
       <c r="M208" s="1">
         <v>1</v>
@@ -10706,28 +10724,28 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
-        <v>694</v>
+        <v>557</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1072</v>
+        <v>896</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>688</v>
+        <v>1119</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>683</v>
+        <v>484</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>684</v>
+        <v>485</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>695</v>
+        <v>558</v>
       </c>
       <c r="K209" s="1">
         <v>1</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>696</v>
+        <v>559</v>
       </c>
       <c r="M209" s="1">
         <v>1</v>
@@ -10735,28 +10753,28 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>697</v>
+        <v>553</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1072</v>
+        <v>896</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>688</v>
+        <v>554</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>683</v>
+        <v>484</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>684</v>
+        <v>485</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>698</v>
+        <v>555</v>
       </c>
       <c r="K210" s="1">
         <v>1</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>699</v>
+        <v>556</v>
       </c>
       <c r="M210" s="1">
         <v>1</v>
@@ -10764,28 +10782,31 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>1157</v>
+        <v>326</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>1087</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1072</v>
+        <v>896</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>688</v>
+        <v>327</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>683</v>
+        <v>291</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>684</v>
+        <v>292</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>700</v>
+        <v>328</v>
       </c>
       <c r="K211" s="1">
         <v>1</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>701</v>
+        <v>329</v>
       </c>
       <c r="M211" s="1">
         <v>1</v>
@@ -10793,28 +10814,28 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>702</v>
+        <v>273</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>688</v>
+        <v>274</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>683</v>
+        <v>16</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>684</v>
+        <v>17</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>703</v>
+        <v>275</v>
       </c>
       <c r="K212" s="1">
         <v>1</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>704</v>
+        <v>276</v>
       </c>
       <c r="M212" s="1">
         <v>1</v>
@@ -10822,86 +10843,86 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1072</v>
+        <v>1086</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>683</v>
+        <v>22</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>684</v>
+        <v>23</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="K213" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="M213" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>708</v>
+        <v>600</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1072</v>
+        <v>1086</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>688</v>
+        <v>601</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>683</v>
+        <v>22</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>684</v>
+        <v>23</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>709</v>
+        <v>602</v>
       </c>
       <c r="K214" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>710</v>
+        <v>603</v>
       </c>
       <c r="M214" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
-        <v>711</v>
+        <v>322</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1072</v>
+        <v>1086</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>688</v>
+        <v>323</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>683</v>
+        <v>22</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>684</v>
+        <v>23</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>712</v>
+        <v>324</v>
       </c>
       <c r="K215" s="1">
         <v>2</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>713</v>
+        <v>325</v>
       </c>
       <c r="M215" s="1">
         <v>2</v>
@@ -10909,28 +10930,28 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
-        <v>714</v>
+        <v>235</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1053</v>
+        <v>1076</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>715</v>
+        <v>236</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>716</v>
+        <v>233</v>
       </c>
       <c r="K216" s="1">
         <v>1</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>717</v>
+        <v>237</v>
       </c>
       <c r="M216" s="1">
         <v>1</v>
@@ -10938,28 +10959,28 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
-        <v>718</v>
+        <v>229</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1146</v>
+        <v>1076</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>719</v>
+        <v>230</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>720</v>
+        <v>233</v>
       </c>
       <c r="K217" s="1">
         <v>1</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>721</v>
+        <v>234</v>
       </c>
       <c r="M217" s="1">
         <v>1</v>
@@ -10967,13 +10988,13 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>722</v>
+        <v>180</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>723</v>
+        <v>181</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>22</v>
@@ -10982,45 +11003,42 @@
         <v>23</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>724</v>
+        <v>182</v>
       </c>
       <c r="K218" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>725</v>
+        <v>183</v>
       </c>
       <c r="M218" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>1269</v>
+        <v>817</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1044</v>
+        <v>1177</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>727</v>
+        <v>1161</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>728</v>
+        <v>818</v>
       </c>
       <c r="K219" s="1">
         <v>1</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="M219" s="1">
         <v>1</v>
@@ -11028,13 +11046,13 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1074</v>
+        <v>1177</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>1097</v>
+        <v>1160</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>219</v>
@@ -11043,13 +11061,13 @@
         <v>220</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>239</v>
+        <v>815</v>
       </c>
       <c r="K220" s="1">
         <v>1</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="M220" s="1">
         <v>1</v>
@@ -11057,57 +11075,57 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="1" t="s">
-        <v>732</v>
+        <v>811</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1042</v>
+        <v>1177</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>733</v>
+        <v>1159</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>734</v>
+        <v>812</v>
       </c>
       <c r="K221" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>735</v>
+        <v>813</v>
       </c>
       <c r="M221" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
-        <v>736</v>
+        <v>808</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1153</v>
+        <v>1177</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>737</v>
+        <v>1158</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>738</v>
+        <v>809</v>
       </c>
       <c r="K222" s="1">
         <v>1</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>739</v>
+        <v>810</v>
       </c>
       <c r="M222" s="1">
         <v>1</v>
@@ -11115,28 +11133,28 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
-        <v>740</v>
+        <v>844</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>741</v>
+        <v>1165</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>539</v>
+        <v>219</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>742</v>
+        <v>845</v>
       </c>
       <c r="K223" s="1">
         <v>1</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>743</v>
+        <v>846</v>
       </c>
       <c r="M223" s="1">
         <v>1</v>
@@ -11144,28 +11162,28 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>745</v>
+        <v>1164</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>539</v>
+        <v>219</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>746</v>
+        <v>842</v>
       </c>
       <c r="K224" s="1">
         <v>1</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
       <c r="M224" s="1">
         <v>1</v>
@@ -11173,28 +11191,28 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1146</v>
+        <v>1178</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>748</v>
+        <v>1163</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K225" s="1">
         <v>1</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="M225" s="1">
         <v>1</v>
@@ -11202,28 +11220,28 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>751</v>
+        <v>835</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1146</v>
+        <v>1178</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>752</v>
+        <v>1162</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="K226" s="1">
         <v>1</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>753</v>
+        <v>837</v>
       </c>
       <c r="M226" s="1">
         <v>1</v>
@@ -11231,28 +11249,28 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>754</v>
+        <v>831</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1146</v>
+        <v>1046</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>755</v>
+        <v>832</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K227" s="1">
         <v>1</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>756</v>
+        <v>834</v>
       </c>
       <c r="M227" s="1">
         <v>1</v>
@@ -11260,13 +11278,13 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1042</v>
+        <v>80</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>1046</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>758</v>
+        <v>81</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>16</v>
@@ -11275,13 +11293,13 @@
         <v>17</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>759</v>
+        <v>82</v>
       </c>
       <c r="K228" s="1">
         <v>1</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>760</v>
+        <v>83</v>
       </c>
       <c r="M228" s="1">
         <v>1</v>
@@ -11289,13 +11307,13 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>761</v>
+        <v>44</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1084</v>
+        <v>1046</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>762</v>
+        <v>45</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>16</v>
@@ -11304,13 +11322,13 @@
         <v>17</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>763</v>
+        <v>46</v>
       </c>
       <c r="K229" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>764</v>
+        <v>47</v>
       </c>
       <c r="M229" s="1">
         <v>1</v>
@@ -11318,25 +11336,28 @@
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1042</v>
+        <v>1084</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>1123</v>
+        <v>762</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="K230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M230" s="1">
         <v>1</v>
@@ -11344,28 +11365,25 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>767</v>
+        <v>317</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1042</v>
+        <v>1084</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>768</v>
+        <v>318</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>769</v>
+        <v>320</v>
       </c>
       <c r="K231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>769</v>
+        <v>321</v>
       </c>
       <c r="M231" s="1">
         <v>1</v>
@@ -11373,28 +11391,28 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>770</v>
+        <v>307</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1042</v>
+        <v>1084</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>771</v>
+        <v>308</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>772</v>
+        <v>309</v>
       </c>
       <c r="K232" s="1">
         <v>1</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>772</v>
+        <v>310</v>
       </c>
       <c r="M232" s="1">
         <v>1</v>
@@ -11402,28 +11420,28 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>773</v>
+        <v>173</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>896</v>
+        <v>1063</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>774</v>
+        <v>1090</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>775</v>
+        <v>174</v>
       </c>
       <c r="K233" s="1">
         <v>1</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>775</v>
+        <v>175</v>
       </c>
       <c r="M233" s="1">
         <v>1</v>
@@ -11431,28 +11449,28 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1042</v>
+        <v>1153</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>778</v>
+        <v>16</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>779</v>
+        <v>17</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="K234" s="1">
         <v>1</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="M234" s="1">
         <v>1</v>
@@ -11460,28 +11478,28 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>782</v>
+        <v>546</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1042</v>
+        <v>1153</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>783</v>
+        <v>547</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>784</v>
+        <v>548</v>
       </c>
       <c r="K235" s="1">
         <v>1</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>785</v>
+        <v>549</v>
       </c>
       <c r="M235" s="1">
         <v>1</v>
@@ -11489,28 +11507,28 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1078</v>
+        <v>1176</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>1124</v>
+        <v>796</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>16</v>
+        <v>342</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>17</v>
+        <v>343</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="K236" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="M236" s="1">
         <v>1</v>
@@ -11518,28 +11536,28 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
-        <v>789</v>
+        <v>88</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>790</v>
+        <v>89</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="K237" s="1">
         <v>1</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M237" s="1">
         <v>1</v>
@@ -11547,28 +11565,28 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>791</v>
+        <v>52</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>792</v>
+        <v>53</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>793</v>
+        <v>54</v>
       </c>
       <c r="K238" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>794</v>
+        <v>55</v>
       </c>
       <c r="M238" s="1">
         <v>1</v>
@@ -11576,54 +11594,57 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
-        <v>795</v>
+        <v>100</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1176</v>
+        <v>1043</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>796</v>
+        <v>65</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>797</v>
+        <v>101</v>
       </c>
       <c r="K239" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>798</v>
+        <v>102</v>
       </c>
       <c r="M239" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>799</v>
+        <v>96</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>800</v>
+        <v>97</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>801</v>
+        <v>16</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>802</v>
+        <v>17</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="K240" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>803</v>
+        <v>99</v>
       </c>
       <c r="M240" s="1">
         <v>1</v>
@@ -11631,28 +11652,28 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>804</v>
+        <v>72</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>805</v>
+        <v>73</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>801</v>
+        <v>16</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>802</v>
+        <v>17</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>806</v>
+        <v>74</v>
       </c>
       <c r="K241" s="1">
         <v>1</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>807</v>
+        <v>75</v>
       </c>
       <c r="M241" s="1">
         <v>1</v>
@@ -11660,86 +11681,86 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
-        <v>808</v>
+        <v>68</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1177</v>
+        <v>1043</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1158</v>
+        <v>69</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>809</v>
+        <v>70</v>
       </c>
       <c r="K242" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>810</v>
+        <v>71</v>
       </c>
       <c r="M242" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>811</v>
+        <v>64</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1177</v>
+        <v>1043</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1159</v>
+        <v>65</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>812</v>
+        <v>66</v>
       </c>
       <c r="K243" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>813</v>
+        <v>67</v>
       </c>
       <c r="M243" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
-        <v>814</v>
+        <v>60</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1177</v>
+        <v>1043</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>1160</v>
+        <v>61</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>815</v>
+        <v>62</v>
       </c>
       <c r="K244" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>816</v>
+        <v>63</v>
       </c>
       <c r="M244" s="1">
         <v>1</v>
@@ -11747,28 +11768,28 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
-        <v>817</v>
+        <v>36</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1177</v>
+        <v>1043</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1161</v>
+        <v>37</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>818</v>
+        <v>38</v>
       </c>
       <c r="K245" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>819</v>
+        <v>39</v>
       </c>
       <c r="M245" s="1">
         <v>1</v>
@@ -11776,13 +11797,13 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="1" t="s">
-        <v>820</v>
+        <v>32</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>821</v>
+        <v>33</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>22</v>
@@ -11791,13 +11812,13 @@
         <v>23</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>822</v>
+        <v>34</v>
       </c>
       <c r="K246" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>823</v>
+        <v>35</v>
       </c>
       <c r="M246" s="1">
         <v>1</v>
@@ -11805,28 +11826,28 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
-        <v>824</v>
+        <v>26</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1144</v>
+        <v>1043</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>825</v>
+        <v>27</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>826</v>
+        <v>28</v>
       </c>
       <c r="K247" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>827</v>
+        <v>29</v>
       </c>
       <c r="M247" s="1">
         <v>1</v>
@@ -11834,28 +11855,28 @@
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="1" t="s">
-        <v>828</v>
+        <v>20</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>829</v>
+        <v>21</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="K248" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>830</v>
+        <v>25</v>
       </c>
       <c r="M248" s="1">
         <v>1</v>
@@ -11863,57 +11884,60 @@
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="1" t="s">
-        <v>831</v>
+        <v>14</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>833</v>
+        <v>18</v>
       </c>
       <c r="K249" s="1">
         <v>1</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>834</v>
+        <v>19</v>
       </c>
       <c r="M249" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="1" t="s">
-        <v>835</v>
+        <v>726</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1269</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1178</v>
+        <v>1044</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1162</v>
+        <v>727</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>836</v>
+        <v>728</v>
       </c>
       <c r="K250" s="1">
         <v>1</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>837</v>
+        <v>729</v>
       </c>
       <c r="M250" s="1">
         <v>1</v>
@@ -11921,28 +11945,28 @@
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="1" t="s">
-        <v>838</v>
+        <v>92</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1178</v>
+        <v>1044</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1163</v>
+        <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>839</v>
+        <v>94</v>
       </c>
       <c r="K251" s="1">
         <v>1</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>840</v>
+        <v>95</v>
       </c>
       <c r="M251" s="1">
         <v>1</v>
@@ -11950,28 +11974,28 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="1" t="s">
-        <v>841</v>
+        <v>76</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1178</v>
+        <v>1044</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>1164</v>
+        <v>77</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>842</v>
+        <v>78</v>
       </c>
       <c r="K252" s="1">
         <v>1</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>843</v>
+        <v>79</v>
       </c>
       <c r="M252" s="1">
         <v>1</v>
@@ -11979,28 +12003,28 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="1" t="s">
-        <v>844</v>
+        <v>56</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1178</v>
+        <v>1044</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>1165</v>
+        <v>57</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>845</v>
+        <v>58</v>
       </c>
       <c r="K253" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>846</v>
+        <v>59</v>
       </c>
       <c r="M253" s="1">
         <v>1</v>
@@ -12008,28 +12032,28 @@
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="1" t="s">
-        <v>847</v>
+        <v>40</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1144</v>
+        <v>1044</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>848</v>
+        <v>41</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>826</v>
+        <v>42</v>
       </c>
       <c r="K254" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>827</v>
+        <v>43</v>
       </c>
       <c r="M254" s="1">
         <v>1</v>
@@ -12037,31 +12061,28 @@
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>1179</v>
+        <v>84</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1079</v>
+        <v>1047</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>850</v>
+        <v>85</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>826</v>
+        <v>86</v>
       </c>
       <c r="K255" s="1">
         <v>1</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>851</v>
+        <v>87</v>
       </c>
       <c r="M255" s="1">
         <v>1</v>
@@ -12069,36 +12090,45 @@
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="1" t="s">
-        <v>852</v>
+        <v>48</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>1125</v>
+        <v>49</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>853</v>
+        <v>50</v>
       </c>
       <c r="K256" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>854</v>
+        <v>51</v>
       </c>
       <c r="M256" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M256">
+    <sortState ref="A2:M256">
+      <sortCondition ref="E2:E256"/>
+      <sortCondition descending="1" ref="F2:F256"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:M256">
+    <sortCondition ref="A5"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D72" r:id="rId1"/>
+    <hyperlink ref="D191" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/categories_and_datasets.xlsx
+++ b/data/categories_and_datasets.xlsx
@@ -4063,7 +4063,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4189,6 +4189,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4202,7 +4203,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="126">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4289,6 +4290,7 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4659,9 +4661,9 @@
   <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="560" activePane="bottomLeft"/>
+      <pane ySplit="560" topLeftCell="A205" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5097,9 +5099,6 @@
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1272</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>1051</v>
       </c>
@@ -5128,6 +5127,9 @@
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1272</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1051</v>
